--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H2">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I2">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J2">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N2">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O2">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P2">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q2">
-        <v>812.4288345067258</v>
+        <v>882.5648565826388</v>
       </c>
       <c r="R2">
-        <v>812.4288345067258</v>
+        <v>7943.08370924375</v>
       </c>
       <c r="S2">
-        <v>0.6773357794611036</v>
+        <v>0.6506292669700987</v>
       </c>
       <c r="T2">
-        <v>0.6773357794611036</v>
+        <v>0.6708183541555347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H3">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I3">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J3">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N3">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P3">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q3">
-        <v>70.71505704920958</v>
+        <v>82.57968891974998</v>
       </c>
       <c r="R3">
-        <v>70.71505704920958</v>
+        <v>743.21720027775</v>
       </c>
       <c r="S3">
-        <v>0.05895634946923618</v>
+        <v>0.06087797635237569</v>
       </c>
       <c r="T3">
-        <v>0.05895634946923618</v>
+        <v>0.06276702566916197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H4">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I4">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J4">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N4">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O4">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P4">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q4">
-        <v>11.39905584819246</v>
+        <v>12.27337041969444</v>
       </c>
       <c r="R4">
-        <v>11.39905584819246</v>
+        <v>110.46033377725</v>
       </c>
       <c r="S4">
-        <v>0.009503587329890826</v>
+        <v>0.009047962809598431</v>
       </c>
       <c r="T4">
-        <v>0.009503587329890826</v>
+        <v>0.009328721944311565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H5">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I5">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J5">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N5">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O5">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P5">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q5">
-        <v>6.011877818124172</v>
+        <v>9.778984034083333</v>
       </c>
       <c r="R5">
-        <v>6.011877818124172</v>
+        <v>88.01085630675</v>
       </c>
       <c r="S5">
-        <v>0.005012205100322967</v>
+        <v>0.00720909422843327</v>
       </c>
       <c r="T5">
-        <v>0.005012205100322967</v>
+        <v>0.007432793098580395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.538645594707</v>
+        <v>18.74341666666666</v>
       </c>
       <c r="H6">
-        <v>18.538645594707</v>
+        <v>56.23025</v>
       </c>
       <c r="I6">
-        <v>0.7850409575646955</v>
+        <v>0.759296164886796</v>
       </c>
       <c r="J6">
-        <v>0.7850409575646955</v>
+        <v>0.772020429027817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N6">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O6">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P6">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q6">
-        <v>41.06073611980914</v>
+        <v>42.77230814258333</v>
       </c>
       <c r="R6">
-        <v>41.06073611980914</v>
+        <v>256.6338488555</v>
       </c>
       <c r="S6">
-        <v>0.03423303620414197</v>
+        <v>0.03153186452628983</v>
       </c>
       <c r="T6">
-        <v>0.03423303620414197</v>
+        <v>0.02167353416022823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H7">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I7">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J7">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N7">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O7">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P7">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q7">
-        <v>26.85021263499771</v>
+        <v>30.96184788263611</v>
       </c>
       <c r="R7">
-        <v>26.85021263499771</v>
+        <v>278.656630943725</v>
       </c>
       <c r="S7">
-        <v>0.0223854803416286</v>
+        <v>0.02282516037395944</v>
       </c>
       <c r="T7">
-        <v>0.0223854803416286</v>
+        <v>0.02353342724144513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H8">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I8">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J8">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N8">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P8">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q8">
-        <v>2.337083862145408</v>
+        <v>2.897033285949</v>
       </c>
       <c r="R8">
-        <v>2.337083862145408</v>
+        <v>26.073299573541</v>
       </c>
       <c r="S8">
-        <v>0.001948466686800148</v>
+        <v>0.002135700995985084</v>
       </c>
       <c r="T8">
-        <v>0.001948466686800148</v>
+        <v>0.002201971998226898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H9">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I9">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J9">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N9">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O9">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P9">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q9">
-        <v>0.3767309336675789</v>
+        <v>0.4305703145865555</v>
       </c>
       <c r="R9">
-        <v>0.3767309336675789</v>
+        <v>3.875132831279</v>
       </c>
       <c r="S9">
-        <v>0.000314087006473336</v>
+        <v>0.000317417633468056</v>
       </c>
       <c r="T9">
-        <v>0.000314087006473336</v>
+        <v>0.0003272671324094798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H10">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I10">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J10">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N10">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O10">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P10">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q10">
-        <v>0.1986884153985844</v>
+        <v>0.3430630778596667</v>
       </c>
       <c r="R10">
-        <v>0.1986884153985844</v>
+        <v>3.087567700737</v>
       </c>
       <c r="S10">
-        <v>0.0001656499215658717</v>
+        <v>0.0002529070551671586</v>
       </c>
       <c r="T10">
-        <v>0.0001656499215658717</v>
+        <v>0.0002607547848125825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.612689450498111</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H11">
-        <v>0.612689450498111</v>
+        <v>1.972651</v>
       </c>
       <c r="I11">
-        <v>0.02594506219193011</v>
+        <v>0.02663737648258906</v>
       </c>
       <c r="J11">
-        <v>0.02594506219193011</v>
+        <v>0.02708376490131472</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N11">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O11">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P11">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q11">
-        <v>1.357029008498687</v>
+        <v>1.500523942713667</v>
       </c>
       <c r="R11">
-        <v>1.357029008498687</v>
+        <v>9.003143656282001</v>
       </c>
       <c r="S11">
-        <v>0.001131378235462146</v>
+        <v>0.001106190424009322</v>
       </c>
       <c r="T11">
-        <v>0.001131378235462146</v>
+        <v>0.0007603437444206345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H12">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I12">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J12">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N12">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O12">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P12">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q12">
-        <v>45.56059226527147</v>
+        <v>83.81495813320832</v>
       </c>
       <c r="R12">
-        <v>45.56059226527147</v>
+        <v>754.334623198875</v>
       </c>
       <c r="S12">
-        <v>0.03798464304069663</v>
+        <v>0.06178862025221907</v>
       </c>
       <c r="T12">
-        <v>0.03798464304069663</v>
+        <v>0.06370592693463914</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H13">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I13">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J13">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N13">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P13">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q13">
-        <v>3.965664122680491</v>
+        <v>7.842384746954999</v>
       </c>
       <c r="R13">
-        <v>3.965664122680491</v>
+        <v>70.58146272259499</v>
       </c>
       <c r="S13">
-        <v>0.003306241833781795</v>
+        <v>0.005781427847655347</v>
       </c>
       <c r="T13">
-        <v>0.003306241833781795</v>
+        <v>0.005960826096086716</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H14">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I14">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J14">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N14">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O14">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P14">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q14">
-        <v>0.639253204280818</v>
+        <v>1.165571028811667</v>
       </c>
       <c r="R14">
-        <v>0.639253204280818</v>
+        <v>10.490139259305</v>
       </c>
       <c r="S14">
-        <v>0.0005329563021448513</v>
+        <v>0.0008592622042687355</v>
       </c>
       <c r="T14">
-        <v>0.0005329563021448513</v>
+        <v>0.0008859251910690643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H15">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I15">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J15">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N15">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O15">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P15">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q15">
-        <v>0.3371430239628179</v>
+        <v>0.9286854459349999</v>
       </c>
       <c r="R15">
-        <v>0.3371430239628179</v>
+        <v>8.358169013415001</v>
       </c>
       <c r="S15">
-        <v>0.000281081890778014</v>
+        <v>0.0006846294937168864</v>
       </c>
       <c r="T15">
-        <v>0.000281081890778014</v>
+        <v>0.0007058736111276181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0396377346745</v>
+        <v>1.780015</v>
       </c>
       <c r="H16">
-        <v>1.0396377346745</v>
+        <v>5.340045</v>
       </c>
       <c r="I16">
-        <v>0.0440246941762716</v>
+        <v>0.07210844143184338</v>
       </c>
       <c r="J16">
-        <v>0.0440246941762716</v>
+        <v>0.07331683269997642</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N16">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O16">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P16">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q16">
-        <v>2.302665017548736</v>
+        <v>4.061978209865</v>
       </c>
       <c r="R16">
-        <v>2.302665017548736</v>
+        <v>24.37186925919</v>
       </c>
       <c r="S16">
-        <v>0.001919771108870308</v>
+        <v>0.002994501633983335</v>
       </c>
       <c r="T16">
-        <v>0.001919771108870308</v>
+        <v>0.002058280867053872</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H17">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I17">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J17">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N17">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O17">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P17">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q17">
-        <v>99.747908414349</v>
+        <v>107.5317702447278</v>
       </c>
       <c r="R17">
-        <v>99.747908414349</v>
+        <v>967.78593220255</v>
       </c>
       <c r="S17">
-        <v>0.08316153295626107</v>
+        <v>0.07927272010493125</v>
       </c>
       <c r="T17">
-        <v>0.08316153295626107</v>
+        <v>0.08173256004585212</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H18">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I18">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J18">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N18">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O18">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P18">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q18">
-        <v>8.682211578990461</v>
+        <v>10.061515671702</v>
       </c>
       <c r="R18">
-        <v>8.682211578990461</v>
+        <v>90.553641045318</v>
       </c>
       <c r="S18">
-        <v>0.007238507912969746</v>
+        <v>0.007417377337497316</v>
       </c>
       <c r="T18">
-        <v>0.007238507912969746</v>
+        <v>0.007647539252056398</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H19">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I19">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J19">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N19">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O19">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P19">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q19">
-        <v>1.399546557755931</v>
+        <v>1.495388399226889</v>
       </c>
       <c r="R19">
-        <v>1.399546557755931</v>
+        <v>13.458495593042</v>
       </c>
       <c r="S19">
-        <v>0.001166825841632372</v>
+        <v>0.001102404487067267</v>
       </c>
       <c r="T19">
-        <v>0.001166825841632372</v>
+        <v>0.001136612201710451</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H20">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I20">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J20">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N20">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O20">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P20">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q20">
-        <v>0.7381227899974809</v>
+        <v>1.191472169480667</v>
       </c>
       <c r="R20">
-        <v>0.7381227899974809</v>
+        <v>10.723249525326</v>
       </c>
       <c r="S20">
-        <v>0.0006153855624837615</v>
+        <v>0.0008783565972093442</v>
       </c>
       <c r="T20">
-        <v>0.0006153855624837615</v>
+        <v>0.0009056120848137426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.27612689796967</v>
+        <v>2.283699333333333</v>
       </c>
       <c r="H21">
-        <v>2.27612689796967</v>
+        <v>6.851098</v>
       </c>
       <c r="I21">
-        <v>0.09638529580774968</v>
+        <v>0.09251270333430135</v>
       </c>
       <c r="J21">
-        <v>0.09638529580774968</v>
+        <v>0.09406302865933584</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N21">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O21">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P21">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q21">
-        <v>5.041330848862882</v>
+        <v>5.211381325372667</v>
       </c>
       <c r="R21">
-        <v>5.041330848862882</v>
+        <v>31.268287952236</v>
       </c>
       <c r="S21">
-        <v>0.004203043534402738</v>
+        <v>0.003841844807596182</v>
       </c>
       <c r="T21">
-        <v>0.004203043534402738</v>
+        <v>0.002640705074903123</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H22">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I22">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J22">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N22">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O22">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P22">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q22">
-        <v>50.29964714360577</v>
+        <v>57.47256256191666</v>
       </c>
       <c r="R22">
-        <v>50.29964714360577</v>
+        <v>344.8353753715</v>
       </c>
       <c r="S22">
-        <v>0.04193567394160558</v>
+        <v>0.0423689329703688</v>
       </c>
       <c r="T22">
-        <v>0.04193567394160558</v>
+        <v>0.02912242995653127</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H23">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I23">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J23">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N23">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O23">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P23">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q23">
-        <v>4.378158758329677</v>
+        <v>5.37758364429</v>
       </c>
       <c r="R23">
-        <v>4.378158758329677</v>
+        <v>32.26550186574</v>
       </c>
       <c r="S23">
-        <v>0.00365014564873022</v>
+        <v>0.003964369619364268</v>
       </c>
       <c r="T23">
-        <v>0.00365014564873022</v>
+        <v>0.002724922920350133</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H24">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I24">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J24">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N24">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O24">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P24">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q24">
-        <v>0.7057461067127964</v>
+        <v>0.7992410348433332</v>
       </c>
       <c r="R24">
-        <v>0.7057461067127964</v>
+        <v>4.79544620906</v>
       </c>
       <c r="S24">
-        <v>0.0005883925692792403</v>
+        <v>0.0005892027138334735</v>
       </c>
       <c r="T24">
-        <v>0.0005883925692792403</v>
+        <v>0.0004049904862086996</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H25">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I25">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J25">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N25">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O25">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P25">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q25">
-        <v>0.3722114726586714</v>
+        <v>0.6368067655299999</v>
       </c>
       <c r="R25">
-        <v>0.3722114726586714</v>
+        <v>3.82084059318</v>
       </c>
       <c r="S25">
-        <v>0.0003103190547276658</v>
+        <v>0.0004694557187136175</v>
       </c>
       <c r="T25">
-        <v>0.0003103190547276658</v>
+        <v>0.0003226819824679518</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.14777724808388</v>
+        <v>1.22057</v>
       </c>
       <c r="H26">
-        <v>1.14777724808388</v>
+        <v>2.44114</v>
       </c>
       <c r="I26">
-        <v>0.04860399025935321</v>
+        <v>0.04944531386447028</v>
       </c>
       <c r="J26">
-        <v>0.04860399025935321</v>
+        <v>0.03351594471155588</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N26">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O26">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P26">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q26">
-        <v>2.542180250824185</v>
+        <v>2.78532975487</v>
       </c>
       <c r="R26">
-        <v>2.542180250824185</v>
+        <v>11.14131901948</v>
       </c>
       <c r="S26">
-        <v>0.002119459045010505</v>
+        <v>0.002053352842190115</v>
       </c>
       <c r="T26">
-        <v>0.002119459045010505</v>
+        <v>0.0009409193659978311</v>
       </c>
     </row>
   </sheetData>
